--- a/Mifos Automation Excels/Client/2601-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-VALIDATE-RANGE-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2601-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-VALIDATE-RANGE-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -93,13 +93,13 @@
     <t>principal1</t>
   </si>
   <si>
-    <t>2601-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-VALIDATE-RANGE</t>
-  </si>
-  <si>
     <t>verifytranche</t>
   </si>
   <si>
     <t>field is required</t>
+  </si>
+  <si>
+    <t>2601-RBI-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-VALIDATE-RANGE-1st</t>
   </si>
 </sst>
 </file>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -594,7 +594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -661,10 +661,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
